--- a/support_list.xlsx
+++ b/support_list.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
   <si>
     <t>初期絆</t>
     <rPh sb="0" eb="2">
@@ -370,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FineMotion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>賢さ</t>
     <rPh sb="0" eb="1">
       <t>カシコ</t>
@@ -410,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウオッカ(フレ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -493,7 +485,134 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイン(フレ)</t>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レースボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SuperCreekFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwinTurboFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FineMotionFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TokaiTeioFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友情ボーナス</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期スピード</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TamamoCrossFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレ効果アップ</t>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期スタミナ</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HayakawaTazunaFriend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fターボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fウオッカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fファイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fスパクリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fテイオー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fタマモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fたずなさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fオグリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期パワー</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OguriCapFriend</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,7 +982,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -919,7 +1038,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -960,7 +1079,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -995,69 +1114,63 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
-        <v>15</v>
-      </c>
-      <c r="O4">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1068,34 +1181,40 @@
       <c r="K5">
         <v>50</v>
       </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
         <v>10</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1106,25 +1225,19 @@
       <c r="K6">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6">
         <v>10</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1133,133 +1246,130 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
         <v>25</v>
       </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
         <v>10</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="O9">
         <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -1279,10 +1389,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1291,57 +1401,57 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>15</v>
       </c>
       <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
-      <c r="O11">
-        <v>40</v>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1352,221 +1462,230 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
       <c r="H13">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
       </c>
       <c r="K13">
         <v>20</v>
       </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>15</v>
+      <c r="O13">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
         <v>15</v>
-      </c>
-      <c r="H14">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>40</v>
+      </c>
+      <c r="Q15">
         <v>4</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>25</v>
       </c>
       <c r="K16">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M16">
         <v>5</v>
       </c>
       <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="O16">
-        <v>40</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>50</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1575,89 +1694,86 @@
         <v>23</v>
       </c>
       <c r="K18">
-        <v>46</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>18</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="O18">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>23</v>
-      </c>
-      <c r="K19">
-        <v>35</v>
-      </c>
-      <c r="O19">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1668,54 +1784,39 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="J21">
         <v>25</v>
       </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
+      <c r="P21">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1726,84 +1827,342 @@
       <c r="F22" t="s">
         <v>7</v>
       </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
       <c r="J22">
         <v>25</v>
       </c>
       <c r="P22">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>25</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G24">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="J24">
         <v>25</v>
       </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24">
+      <c r="K24">
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
         <v>15</v>
       </c>
-      <c r="K24">
+      <c r="O24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
         <v>35</v>
       </c>
-      <c r="L24" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>20</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>35</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
